--- a/biology/Zoologie/Fadet_crétois/Fadet_crétois.xlsx
+++ b/biology/Zoologie/Fadet_crétois/Fadet_crétois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fadet_cr%C3%A9tois</t>
+          <t>Fadet_crétois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coenonympha thyrsis
 Le Fadet crétois (Coenonympha thyrsis) est un papillon appartenant à la famille des Nymphalidae à la sous-famille des Satyrinae et au genre  Coenonympha.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fadet_cr%C3%A9tois</t>
+          <t>Fadet_crétois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coenonympha thyrsis a été nommé par Christian Friedrich Freyer en 1845[1].
-Noms vernaculaires
-Le Fadet crétois se nomme Cretan Small Heath en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coenonympha thyrsis a été nommé par Christian Friedrich Freyer en 1845.
 </t>
         </is>
       </c>
@@ -527,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fadet_cr%C3%A9tois</t>
+          <t>Fadet_crétois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fadet crétois se nomme Cretan Small Heath en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fadet_crétois</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_cr%C3%A9tois</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce petit papillon de couleur jaune orangé à étroite bordure marron présente un ocelle noir aveugle à l'apex des antérieures, et chez la femelle une ligne d'ocelles vestigiaux sous forme de petits points aux postérieures.
 Le revers est aux antérieures de la même couleur jaune orangé avec à l'apex un ocelle noir pupillé de blanc cerclé de jaune, et aux postérieures une bande postdiscale irrégulière un peu plus claire et une ligne de discrets ocelles noirs pupillés de blanc.
@@ -553,47 +604,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fadet_cr%C3%A9tois</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fadet_cr%C3%A9tois</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en deux générations, de mai à juillet[3].
-Plantes hôtes
-Ses plantes hôtes sont des graminées.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fadet_cr%C3%A9tois</t>
+          <t>Fadet_crétois</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,15 +625,126 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en deux générations, de mai à juillet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fadet_crétois</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_cr%C3%A9tois</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des graminées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fadet_crétois</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_cr%C3%A9tois</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il est présent uniquement en Crète[1],[3].
-Biotope
-Il réside dans les lieux herbus humides.
-Protection</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent uniquement en Crète,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fadet_crétois</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_cr%C3%A9tois</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les lieux herbus humides.
+</t>
         </is>
       </c>
     </row>
